--- a/data/trans_camb/P1422-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1422-Provincia-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.691001925463491</v>
+        <v>-2.659489127314603</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.328990607780389</v>
+        <v>-3.483400799452468</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.034518843866268</v>
+        <v>-1.522337282562401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.23636108296363</v>
+        <v>-1.291619227726175</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.709129304847866</v>
+        <v>-1.569023600735374</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.850154290160553</v>
+        <v>-1.859241807125022</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7844298716034837</v>
+        <v>0.558003551521622</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.2389363282362558</v>
+        <v>-0.2420397231709391</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5004397564641807</v>
+        <v>0.4813750514717988</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.264004384589315</v>
+        <v>0.26612101660941</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.05046854657930031</v>
+        <v>-0.08272842528911253</v>
       </c>
     </row>
     <row r="7">
@@ -712,9 +712,7 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
@@ -732,17 +730,15 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>1.996085812488658</v>
-      </c>
+      <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>1.684038353882822</v>
+        <v>1.446198147345618</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1417969295466084</v>
+        <v>0.3714519900339495</v>
       </c>
     </row>
     <row r="10">
@@ -766,7 +762,7 @@
         <v>-0.8666622415047743</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.1715957361501158</v>
+        <v>-0.1715957361501157</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.8657083657169838</v>
@@ -783,22 +779,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.964821147144186</v>
+        <v>-2.854608268775848</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.703111508029713</v>
+        <v>-3.30243344766764</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.241134049849607</v>
+        <v>-2.051362761881449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.327349420959658</v>
+        <v>-1.401201480080985</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.074409298320116</v>
+        <v>-2.144341060720607</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.930659199942569</v>
+        <v>-1.845368519319517</v>
       </c>
     </row>
     <row r="12">
@@ -809,22 +805,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7322758710892396</v>
+        <v>0.9053984037642494</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1729005284030366</v>
+        <v>0.3451928375576964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.2212081238022212</v>
+        <v>-0.2193418890962343</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8211649471198047</v>
+        <v>0.7960631959767184</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.02788205479836484</v>
+        <v>0.05465265683380212</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1556813365995163</v>
+        <v>0.1685019816716423</v>
       </c>
     </row>
     <row r="13">
@@ -844,13 +840,13 @@
         <v>-1</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1979960911325459</v>
+        <v>-0.1979960911325458</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.5891953580258846</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4937539719137205</v>
+        <v>-0.4937539719137206</v>
       </c>
     </row>
     <row r="14">
@@ -861,20 +857,20 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8213963480297282</v>
+        <v>-0.8320626671573135</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.9342616940208505</v>
+        <v>-0.9184966941554283</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.8653746145924314</v>
+        <v>-0.8687632149137929</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.9038132607882458</v>
+        <v>-0.8607387676619841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8333011772413588</v>
+        <v>-0.8334216325383763</v>
       </c>
     </row>
     <row r="15">
@@ -885,20 +881,20 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.144691713444197</v>
+        <v>1.301947795605339</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3393907592326894</v>
+        <v>0.9079884304665609</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>3.113067870993238</v>
+        <v>3.094933656322579</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08991186482210124</v>
+        <v>0.206172980832109</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3273587090513042</v>
+        <v>0.2719907675677219</v>
       </c>
     </row>
     <row r="16">
@@ -928,7 +924,7 @@
         <v>-0.2420230557355824</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.209156483819305</v>
+        <v>1.209156483819304</v>
       </c>
     </row>
     <row r="17">
@@ -939,22 +935,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.671123977669907</v>
+        <v>-1.79074506471827</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2661258545378491</v>
+        <v>0.3038837314589402</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.633103729185717</v>
+        <v>-1.614441819712438</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7912327361186527</v>
+        <v>-0.8103464903426277</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.159846247934275</v>
+        <v>-1.140825969396248</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2072152557650129</v>
+        <v>0.165418215631089</v>
       </c>
     </row>
     <row r="18">
@@ -965,22 +961,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.169067265424765</v>
+        <v>1.035616418825699</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.80430778166574</v>
+        <v>3.71432772456977</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5804779198148309</v>
+        <v>0.5612269791378387</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.63550448207496</v>
+        <v>1.632924106189535</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5325757604693241</v>
+        <v>0.4753740151908019</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.309304323768735</v>
+        <v>2.316549610357606</v>
       </c>
     </row>
     <row r="19">
@@ -1018,17 +1014,17 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>-0.08484063528029637</v>
+        <v>-0.1181865956318633</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.6886444259796547</v>
+        <v>-0.7453682666859072</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8785021803332411</v>
+        <v>-0.8731434894501623</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05421740337328958</v>
+        <v>-0.1077925130487427</v>
       </c>
     </row>
     <row r="21">
@@ -1040,15 +1036,15 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>12.90505421775872</v>
+        <v>15.05657270016336</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>2.644230069685528</v>
+        <v>2.29254838108309</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.31587046919981</v>
+        <v>6.354271583309534</v>
       </c>
     </row>
     <row r="22">
@@ -1078,7 +1074,7 @@
         <v>0.1887390289096905</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.02801712003816983</v>
+        <v>0.02801712003816948</v>
       </c>
     </row>
     <row r="23">
@@ -1089,22 +1085,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.229277599547314</v>
+        <v>-1.264527424641706</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.160884291374887</v>
+        <v>-1.222630737145482</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.036206554721985</v>
+        <v>-1.006893735768343</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.397605539173298</v>
+        <v>-1.420615270192279</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.7511614742620254</v>
+        <v>-0.7541210854064599</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.9583398913398914</v>
+        <v>-0.8640121512084489</v>
       </c>
     </row>
     <row r="24">
@@ -1115,22 +1111,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.358247097427278</v>
+        <v>1.324173064123688</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.778535328602328</v>
+        <v>1.533362874280749</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.531304398176712</v>
+        <v>2.788907184194954</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.124890742199641</v>
+        <v>1.100846915031536</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.306483210991767</v>
+        <v>1.405899544981686</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9056533806470398</v>
+        <v>0.8693644531106758</v>
       </c>
     </row>
     <row r="25">
@@ -1156,7 +1152,7 @@
         <v>0.2093046400738383</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03106995547964047</v>
+        <v>0.03106995547964008</v>
       </c>
     </row>
     <row r="26">
@@ -1168,17 +1164,15 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
-      <c r="E26" s="6" t="n">
-        <v>-0.8159436549131776</v>
-      </c>
+      <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.7260942110819836</v>
+        <v>-0.7576849508327926</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6404439311945951</v>
+        <v>-0.6681950417457672</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6728381796299466</v>
+        <v>-0.6612635792037138</v>
       </c>
     </row>
     <row r="27">
@@ -1190,17 +1184,15 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
-      <c r="E27" s="6" t="n">
-        <v>9.889567982806385</v>
-      </c>
+      <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>3.528414340441973</v>
+        <v>3.28739255175811</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.867279534321062</v>
+        <v>3.032264259373406</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.021534613830592</v>
+        <v>2.046857741804436</v>
       </c>
     </row>
     <row r="28">
@@ -1224,13 +1216,13 @@
         <v>0.3362407874201896</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-0.4176056930960797</v>
+        <v>-0.4176056930960799</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.2915170596245128</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.09393639527911588</v>
+        <v>-0.09393639527911571</v>
       </c>
     </row>
     <row r="29">
@@ -1241,22 +1233,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.354681213805504</v>
+        <v>-2.100446024085037</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.982887769812577</v>
+        <v>-2.206620858228099</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.178388318170076</v>
+        <v>-2.124218463049124</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.973068115864201</v>
+        <v>-3.007630818544444</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.515428504852056</v>
+        <v>-1.428021209734128</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.821138959309064</v>
+        <v>-1.665853037263954</v>
       </c>
     </row>
     <row r="30">
@@ -1267,22 +1259,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.590924878546924</v>
+        <v>2.653604219752244</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.171740722218536</v>
+        <v>2.278627458405647</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.436195598376773</v>
+        <v>3.356571904662662</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.145423018408231</v>
+        <v>1.214632208605431</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.141416871425718</v>
+        <v>2.01735853030224</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.173064738876154</v>
+        <v>1.224544532401555</v>
       </c>
     </row>
     <row r="31">
@@ -1302,13 +1294,13 @@
         <v>0.1882084693557588</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.2337519159852663</v>
+        <v>-0.2337519159852664</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1760204829297645</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.05671959535750228</v>
+        <v>-0.05671959535750218</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1312,17 @@
       </c>
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="n">
-        <v>-0.7673418591873413</v>
-      </c>
-      <c r="E32" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8216130694320153</v>
+      </c>
+      <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.8140924812510718</v>
+        <v>-0.8320010812966065</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6189905379730535</v>
+        <v>-0.662824853386436</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6547517792230011</v>
+        <v>-0.6331843001632832</v>
       </c>
     </row>
     <row r="33">
@@ -1343,18 +1333,18 @@
         </is>
       </c>
       <c r="C33" s="6" t="inlineStr"/>
-      <c r="D33" s="6" t="inlineStr"/>
-      <c r="E33" s="6" t="n">
-        <v>7.475437315236549</v>
-      </c>
+      <c r="D33" s="6" t="n">
+        <v>5.936741403315748</v>
+      </c>
+      <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>2.44586687421676</v>
+        <v>2.396270658769704</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.928730370265984</v>
+        <v>2.168591600965069</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.505669313858603</v>
+        <v>1.93830923186794</v>
       </c>
     </row>
     <row r="34">
@@ -1395,22 +1385,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.7065061614002077</v>
+        <v>-0.7106322131537443</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.4975724503776223</v>
+        <v>0.5620118933546961</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.712554047428992</v>
+        <v>-2.672664219120214</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.7151407457859732</v>
+        <v>-0.7104528658855476</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.181194647526176</v>
+        <v>-1.30854372061945</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.4014738836748175</v>
+        <v>0.326700584285688</v>
       </c>
     </row>
     <row r="36">
@@ -1421,22 +1411,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.096331242106557</v>
+        <v>1.088172305808397</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.428938647422676</v>
+        <v>3.507189199507003</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.424195046282877</v>
+        <v>2.466954614556558</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.1771887213390555</v>
+        <v>0.1791002523475892</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.466050399823911</v>
+        <v>2.495246186067916</v>
       </c>
     </row>
     <row r="37">
@@ -1476,11 +1466,11 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.6059699717585872</v>
+        <v>-0.7082429899715827</v>
       </c>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="n">
-        <v>0.05242515619393594</v>
+        <v>-0.06183756445201832</v>
       </c>
     </row>
     <row r="39">
@@ -1496,7 +1486,7 @@
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="n">
-        <v>11.99382254344432</v>
+        <v>13.31229400091516</v>
       </c>
     </row>
     <row r="40">
@@ -1520,13 +1510,13 @@
         <v>0.08035906710743444</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>0.7236047414476848</v>
+        <v>0.7236047414476847</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>0.1148542492659178</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.7580642938802262</v>
+        <v>0.7580642938802264</v>
       </c>
     </row>
     <row r="41">
@@ -1537,22 +1527,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.424908904161035</v>
+        <v>-0.4115977938007333</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.08685784916219767</v>
+        <v>0.03919625171725152</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.7375187242650229</v>
+        <v>-0.8543626789539391</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.190316354098405</v>
+        <v>-0.2387994338570222</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.4462555581135522</v>
+        <v>-0.3764701666764421</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.1318594549015306</v>
+        <v>0.1619985449367668</v>
       </c>
     </row>
     <row r="42">
@@ -1563,22 +1553,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.137708289542582</v>
+        <v>1.240391075941522</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.749810106383164</v>
+        <v>1.764932707490625</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.159910023413338</v>
+        <v>1.008297408002121</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.615419670328852</v>
+        <v>1.616949010542862</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.6691051402188131</v>
+        <v>0.8288404840538277</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.405430658553645</v>
+        <v>1.363780082199284</v>
       </c>
     </row>
     <row r="43">
@@ -1598,7 +1588,7 @@
         <v>0.131721912388871</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>1.186108846058587</v>
+        <v>1.186108846058586</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2549934950144855</v>
@@ -1616,19 +1606,19 @@
       </c>
       <c r="C44" s="6" t="inlineStr"/>
       <c r="D44" s="6" t="n">
-        <v>-0.4088328604790485</v>
+        <v>-0.4384827284186218</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.8354212754293454</v>
+        <v>-1</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2921585834861144</v>
+        <v>-0.3984710734504986</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.7422963445230081</v>
+        <v>-0.6567159778328575</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.02137868866470352</v>
+        <v>0.06169628593542539</v>
       </c>
     </row>
     <row r="45">
@@ -1641,16 +1631,16 @@
       <c r="C45" s="6" t="inlineStr"/>
       <c r="D45" s="6" t="inlineStr"/>
       <c r="E45" s="6" t="n">
-        <v>6.590742755058533</v>
+        <v>5.881842055102214</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>7.98759280000969</v>
+        <v>8.534174012941742</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3.085413561819153</v>
+        <v>5.094954174398721</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>5.944906423439451</v>
+        <v>6.577232658857149</v>
       </c>
     </row>
     <row r="46">
@@ -1668,7 +1658,7 @@
         <v>-0.8236366862467752</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0.5198367683687665</v>
+        <v>0.5198367683687662</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>0.2040509001275389</v>
@@ -1691,22 +1681,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.762071129187809</v>
+        <v>-1.681072092058027</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.4220182485760654</v>
+        <v>-0.4733656011587369</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.4199430518604879</v>
+        <v>-0.5246196016729456</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.2140078361370075</v>
+        <v>-0.2258709351853493</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.7972172271678358</v>
+        <v>-0.8265228971724732</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.1018670594616404</v>
+        <v>-0.1176146643327779</v>
       </c>
     </row>
     <row r="48">
@@ -1717,22 +1707,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.2840527397649743</v>
+        <v>-0.2819326790075185</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.576344631768575</v>
+        <v>1.58562533107626</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.208648488367365</v>
+        <v>0.9965395290931198</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.217083098428795</v>
+        <v>1.213516342748596</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.2259710699964473</v>
+        <v>0.1700489040911485</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.120862731129481</v>
+        <v>1.142514123159117</v>
       </c>
     </row>
     <row r="49">
@@ -1746,7 +1736,7 @@
         <v>-1</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.6311481470520787</v>
+        <v>0.6311481470520784</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>0.5053657827760478</v>
@@ -1770,17 +1760,19 @@
       </c>
       <c r="C50" s="6" t="inlineStr"/>
       <c r="D50" s="6" t="n">
-        <v>-0.4298408576906525</v>
-      </c>
-      <c r="E50" s="6" t="inlineStr"/>
+        <v>-0.5040827984188946</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4303764801310341</v>
+        <v>-0.5650253663180641</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.8870229023229217</v>
+        <v>-0.9088584412251622</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1804509644224572</v>
+        <v>-0.1843561080077821</v>
       </c>
     </row>
     <row r="51">
@@ -1792,15 +1784,17 @@
       </c>
       <c r="C51" s="6" t="inlineStr"/>
       <c r="D51" s="6" t="n">
-        <v>3.972504925287169</v>
+        <v>3.8152231514851</v>
       </c>
       <c r="E51" s="6" t="inlineStr"/>
-      <c r="F51" s="6" t="inlineStr"/>
+      <c r="F51" s="6" t="n">
+        <v>8.055795183986209</v>
+      </c>
       <c r="G51" s="6" t="n">
-        <v>1.116181915313586</v>
+        <v>0.6478941686611268</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>3.289589498820055</v>
+        <v>3.190583731742021</v>
       </c>
     </row>
     <row r="52">
@@ -1830,7 +1824,7 @@
         <v>-0.2344731490998059</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>0.3050941131688467</v>
+        <v>0.3050941131688465</v>
       </c>
     </row>
     <row r="53">
@@ -1841,22 +1835,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.8132001673499796</v>
+        <v>-0.8256547437010973</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.1915374878450309</v>
+        <v>-0.2697382185344522</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.5901637447123677</v>
+        <v>-0.6281537296314704</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.06804838115613478</v>
+        <v>-0.10734922337867</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.5393016148542279</v>
+        <v>-0.5259577696429629</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.02740951735896684</v>
+        <v>-0.01194261793520275</v>
       </c>
     </row>
     <row r="54">
@@ -1867,22 +1861,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.07923067570255415</v>
+        <v>0.07506038788027834</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.7738633563370576</v>
+        <v>0.7954248149147578</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.3203079899894984</v>
+        <v>0.2593299657590377</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.7054446781214415</v>
+        <v>0.7101208763425152</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.06733303314612704</v>
+        <v>0.06530030533036742</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>0.6307066064927467</v>
+        <v>0.613160327428001</v>
       </c>
     </row>
     <row r="55">
@@ -1908,7 +1902,7 @@
         <v>-0.2774634443025619</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3610326547038042</v>
+        <v>0.361032654703804</v>
       </c>
     </row>
     <row r="56">
@@ -1919,22 +1913,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.6404280859991502</v>
+        <v>-0.6472112824422264</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1618241286062542</v>
+        <v>-0.2594336041316855</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.6210198606286039</v>
+        <v>-0.6374609813392881</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.08807414362342987</v>
+        <v>-0.1222820552083796</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.5236383564887719</v>
+        <v>-0.5137077277191593</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.02733084962915587</v>
+        <v>-0.02772181682839734</v>
       </c>
     </row>
     <row r="57">
@@ -1945,22 +1939,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.134014749941103</v>
+        <v>0.148636444914122</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.082836096622089</v>
+        <v>1.050330620877959</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.6469349644023793</v>
+        <v>0.5132202120190813</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.3309188404248</v>
+        <v>1.324710467079105</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1134895211929225</v>
+        <v>0.09917268846454805</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.942123893069184</v>
+        <v>0.8993896110145234</v>
       </c>
     </row>
     <row r="58">
